--- a/src/ground-station/part_order_digikey.xlsx
+++ b/src/ground-station/part_order_digikey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/code/aero-hardware/src/ground-station/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D0B247-2520-C948-8160-ABA7E2438B1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1E27D-3C75-4D48-B311-3E7D849E70FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16060" xr2:uid="{EBE6C59A-381D-0E4A-B8DE-3E8DA00BDEB0}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Qty</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>https://www.digikey.ca/product-detail/en/adafruit-industries-llc/326/1528-1220-ND/5353680</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/product-detail/en/sullins-connector-solutions/PPPC061LGBN-RC/S5481-ND/775939</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -660,7 +663,9 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
@@ -738,6 +743,7 @@
     <hyperlink ref="E9" r:id="rId6" xr:uid="{A7556A34-6605-6646-98F0-A10C8CA80991}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{FE28ED36-23EF-FA4C-840E-0CDDB98E8D71}"/>
     <hyperlink ref="E4" r:id="rId8" xr:uid="{972655BD-C1F7-4949-A152-4CBDAFCF7543}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{A483A324-BBBA-8246-8A7E-FE6EAB670A0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
